--- a/KeywordDrivenTest/TestData/TestCases.xlsx
+++ b/KeywordDrivenTest/TestData/TestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45CFF859-E413-49E1-A789-633064FD05AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9548BE0-2C94-45FF-A91E-6B652C7E0A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -78,6 +78,9 @@
     <t>passwordField</t>
   </si>
   <si>
+    <t>mazhar.karim@brainstation-23.coM</t>
+  </si>
+  <si>
     <t>Step4</t>
   </si>
   <si>
@@ -97,9 +100,6 @@
   </si>
   <si>
     <t>Welcome</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -506,7 +506,7 @@
     <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -537,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -554,7 +554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -568,42 +568,37 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="U15" t="s">
         <v>22</v>
       </c>
     </row>

--- a/KeywordDrivenTest/TestData/TestCases.xlsx
+++ b/KeywordDrivenTest/TestData/TestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9548BE0-2C94-45FF-A91E-6B652C7E0A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27AD53BA-C06C-44DF-8C84-6DBF1A9FC933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>StepID</t>
   </si>
   <si>
-    <t>Keyword</t>
-  </si>
-  <si>
-    <t>LocatorKey</t>
+    <t>ActionKeyword</t>
+  </si>
+  <si>
+    <t>ElementName</t>
   </si>
   <si>
     <t>TestData</t>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
